--- a/medicine/Enfance/Claude_K._Dubois/Claude_K._Dubois.xlsx
+++ b/medicine/Enfance/Claude_K._Dubois/Claude_K._Dubois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude K. Dubois, née le 4 avril 1960 à Verviers (province de Liège), est une autrice et illustratrice belge, de langue française et flamande.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude K. Dubois naît le 4 avril 1960 à Verviers[1],[2]. Elle est formée à l'École supérieure des arts Saint-Luc de Liège[3], où elle est maintenant titulaire d’un atelier d’illustration[3].
-Outre le dessin, et ses multiples techniques, elle peint et sculpte également[3].
-Elle a réalisé une centaine d'albums jeunesse, en tant qu'autrice et / ou illustratrice, principalement publiés à L'École des loisirs, depuis la fin des années 1980. Ses ouvrages sont traduits dans plus de 20 langues[4].
-Elle a été récompensée par plusieurs prix, dont le prix SCAM 2002 de l’Illustration jeunesse en Belgique[3],[4]. 
-De 2001 à 2003, elle a été membre de la commission Littératures de jeunesse au Centre national du Livre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude K. Dubois naît le 4 avril 1960 à Verviers,. Elle est formée à l'École supérieure des arts Saint-Luc de Liège, où elle est maintenant titulaire d’un atelier d’illustration.
+Outre le dessin, et ses multiples techniques, elle peint et sculpte également.
+Elle a réalisé une centaine d'albums jeunesse, en tant qu'autrice et / ou illustratrice, principalement publiés à L'École des loisirs, depuis la fin des années 1980. Ses ouvrages sont traduits dans plus de 20 langues.
+Elle a été récompensée par plusieurs prix, dont le prix SCAM 2002 de l’Illustration jeunesse en Belgique,. 
+De 2001 à 2003, elle a été membre de la commission Littératures de jeunesse au Centre national du Livre.
 </t>
         </is>
       </c>
@@ -546,12 +560,12 @@
           <t>Travaux en solitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a écrit et illustré une vingtaine d'ouvrages, en commençant à la fin des années 1980 par la série Bobby et Nanou en 4 volets. 
 Son album Pas belle, en 2008, se penche sur une petite fille qui se pense laide physiquement, et sur la présence bienveillante de son père.
-Akim court
-En 2012, elle publie Akim court, sur le thème d'un enfant qui fuit la guerre et qui est accueilli dans un camp de réfugiés[5]. L'ouvrage est soutenu par Amnesty International[6],[7]. En 2014, il est récompensé en Allemagne, dans sa version traduite, par le Jugendliteraturpreis, catégorie album[8] (Momo du meilleur album de l'année[4], Foire du livre de Francfort), et par le Katholische Kinderbuchpreis [« prix du livre catholique »][4].
 </t>
         </is>
       </c>
@@ -577,19 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Collaborations</t>
+          <t>Travaux en solitaire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avec Carl Norac
-Ses principales collaborations sont auprès de l'auteur belge Carl Norac, pour une quinzaine d'albums, qu'elle illustre. Le premier, en 1996 Les Mots doux, a connu un succès international en littérature jeunesse[9],[10],[11], notamment aux États-Unis[12], où, traduit sous le titre I love you so much, il est en tête des ventes à sa sortie en 1998[13],[11]. Carl Norac explique, dans un article en 2006 : « Aux États-Unis, il y a une réelle difficulté de dialogue entre parents et enfants à propos de l'amour. Je crois que mon livre révélait vraiment un problème actuel. Il s'agissait d'une question brûlante. Quand on fait des livres affectifs, il y a toujours des gens qui viennent vous en parler. J'en ai déjà vu pleurer lors d'une dédicace[13]. » L'album obtient le prix des Bibliothèques de France en 1996. 
-Il s'agissait de sa première collaboration avec Carl Norac, et elle illustre par la suite plus d'une quinzaine de ses textes, toujours sur le thème de la tendresse. Ce premier ouvrage et succès de Les Mots doux en 1996 entraîne une suite d'albums avec la petite femelle hamster Lola[14], avec, deux ans plus tard L'île aux câlins. S'ensuivent une douzaine de titres, et, en 2018, Adorable, c'est tout moi.
-Avec Gudule
-Elle a également collaboré avec l'auteure Gudule, décédée en 2015, pour la série Arthur qu'elle illustre, dans les années 2000, qui compte sept titres, ainsi que pour l'album Papy et la fée en 2002.
-Entre 2013 et 2015, elle travailleront ensemble sur trois albums, publiés aux éditions Mijade, dont le dernier, Les Folles histoires.
-Avec le Docteur Éric Englebert
-Depuis 2005, elle illustre plus d'une quinzaine d'ouvrages pédagogiques écrits par le médecin et thérapeute Éric Englebert[15], dans des livres qui se penchent sur des soucis de l'enfance : des plus légers, comme dans T'es plus ma copine !, à des plus graves, comme pour Maman est malade ou Mon chien est mort.
+          <t>Akim court</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, elle publie Akim court, sur le thème d'un enfant qui fuit la guerre et qui est accueilli dans un camp de réfugiés. L'ouvrage est soutenu par Amnesty International,. En 2014, il est récompensé en Allemagne, dans sa version traduite, par le Jugendliteraturpreis, catégorie album (Momo du meilleur album de l'année, Foire du livre de Francfort), et par le Katholische Kinderbuchpreis [« prix du livre catholique »].
 </t>
         </is>
       </c>
@@ -615,13 +628,131 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avec Carl Norac</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses principales collaborations sont auprès de l'auteur belge Carl Norac, pour une quinzaine d'albums, qu'elle illustre. Le premier, en 1996 Les Mots doux, a connu un succès international en littérature jeunesse notamment aux États-Unis, où, traduit sous le titre I love you so much, il est en tête des ventes à sa sortie en 1998,. Carl Norac explique, dans un article en 2006 : « Aux États-Unis, il y a une réelle difficulté de dialogue entre parents et enfants à propos de l'amour. Je crois que mon livre révélait vraiment un problème actuel. Il s'agissait d'une question brûlante. Quand on fait des livres affectifs, il y a toujours des gens qui viennent vous en parler. J'en ai déjà vu pleurer lors d'une dédicace. » L'album obtient le prix des Bibliothèques de France en 1996. 
+Il s'agissait de sa première collaboration avec Carl Norac, et elle illustre par la suite plus d'une quinzaine de ses textes, toujours sur le thème de la tendresse. Ce premier ouvrage et succès de Les Mots doux en 1996 entraîne une suite d'albums avec la petite femelle hamster Lola, avec, deux ans plus tard L'île aux câlins. S'ensuivent une douzaine de titres, et, en 2018, Adorable, c'est tout moi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avec Gudule</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a également collaboré avec l'auteure Gudule, décédée en 2015, pour la série Arthur qu'elle illustre, dans les années 2000, qui compte sept titres, ainsi que pour l'album Papy et la fée en 2002.
+Entre 2013 et 2015, elle travailleront ensemble sur trois albums, publiés aux éditions Mijade, dont le dernier, Les Folles histoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avec le Docteur Éric Englebert</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2005, elle illustre plus d'une quinzaine d'ouvrages pédagogiques écrits par le médecin et thérapeute Éric Englebert, dans des livres qui se penchent sur des soucis de l'enfance : des plus légers, comme dans T'es plus ma copine !, à des plus graves, comme pour Maman est malade ou Mon chien est mort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Autrice et illustratrice
-Bobby et Nanou : Où est passé Filou ?, L'École des loisirs, 1989
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bobby et Nanou : Où est passé Filou ?, L'École des loisirs, 1989
 Bobby et Nanou : C'est mon Jumbo !, L'École des loisirs, 1989
 Bobby et Nanou jouent au docteur, L'École des loisirs, 1990
 Bobby et Nanou : Sur le petit pot, , L'École des loisirs, 1990
@@ -639,23 +770,129 @@
 Pas belle, Pastel, L'École des loisirs, 2008
 Petit chagrin d'amour, L'École des loisirs, 2010
 La Pêche à la lune, Pastel, L'École des loisirs, 2011
-Akim court[16],[5], Pastel, L'École des loisirs, 2012  Jugendliteraturpreis 2014, catégorie album[8] (Momo du meilleur album de l'année 2014[4], Foire du livre de Francfort) ; Katholische Kinderbuchpreis 2014[4] 
+Akim court Pastel, L'École des loisirs, 2012  Jugendliteraturpreis 2014, catégorie album (Momo du meilleur album de l'année 2014, Foire du livre de Francfort) ; Katholische Kinderbuchpreis 2014 
 Tombé !, Pastel, L'École des loisirs, 2014
 Pfff..., Pastel, L'École des loisirs, 2017
-Momo va dormir chez Armand, L'École des loisirs, 2020
-Autrice
-Lion chasse, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994
+Momo va dormir chez Armand, L'École des loisirs, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autrice</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lion chasse, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994
 La Première Toile, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1994
 Lili vole, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 1996
 Moi aussi, je veux maman !, texte de Claude K. Dubois ; ill. de Stibane, L'École des loisirs, 2001
 Première tempête, texte de Claude K. Dubois ; illustrations de Catherine Pineur, Pastel, L'École des loisirs, 2010
 Ma feuille !, texte de Claude K. Dubois ; illustrations de Pélagie, Pastel, L'École des loisirs, 2013
-Quel bruit !, texte de Claude K. Dubois ; illustrations de Pélagie, Pastel, L'École des loisirs, 2014
-Illustratrice
-Babette et Virginie, texte Claude Lager,  ill. Claude K. Dubois, L’École des loisirs, 1988
-Le Trésor de Babette, texte Claude Lager,  ill. Claude K. Dubois, L’École des loisirs, 1988
-Années 1990
-Puni-cagibi !, texte Alain Serres ; ill. Claude K. Dubois, L'École des loisirs, 1990
+Quel bruit !, texte de Claude K. Dubois ; illustrations de Pélagie, Pastel, L'École des loisirs, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Babette et Virginie, texte Claude Lager,  ill. Claude K. Dubois, L’École des loisirs, 1988
+Le Trésor de Babette, texte Claude Lager,  ill. Claude K. Dubois, L’École des loisirs, 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Puni-cagibi !, texte Alain Serres ; ill. Claude K. Dubois, L'École des loisirs, 1990
 Petit bout tout doux, texte Claude Lager ; ill. Claude K. Dubois, L’École des loisirs, 1991
 Toto, texte de Rascal, illustré par Claude K. Dubois, Pastel, L’École des loisirs, 1992
 Cassandre, texte de Rascal, illustré par Claude K. Dubois, Pastel, L’École des loisirs, 1993
@@ -669,9 +906,47 @@
 Les Mots doux, texte de Carl Norac, illustrations de Claude K. Dubois, L'École des loisirs, 1996 Prix des Bibliothèques de France 1996.
 L'Île aux câlins, texte de Carl Norac ; ill. de Claude K. Dubois, Pastel, L’École des loisirs, 1998
 Bonjour, mon petit cœur, texte de Carl Norac ; ill. de Claude K. Dubois, Pastel, L’École des loisirs, 1999
-Recherche doudou désespérément, texte de Dominique Souton ; ill. de Claude K. Dubois, L’École des loisirs, 1999
-Années 2000
-Vis ta vie, Nina, de Maïa Brami ; ill. de Claude K. Dubois, Grasset, 2000
+Recherche doudou désespérément, texte de Dominique Souton ; ill. de Claude K. Dubois, L’École des loisirs, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vis ta vie, Nina, de Maïa Brami ; ill. de Claude K. Dubois, Grasset, 2000
 Marine et Louisa, texte de Carl Norac ; ill. de Claude K. Dubois, Pastel, L’École des loisirs, 2000
 Un bisou, c'est trop court, texte de Carl Norac ; ill. de Claude K. Dubois, Pastel, L'École des loisirs, 2001
 Je suis un amour, Carl Norac ; ill. par Claude K. Dubois,  Pastel, L’École des loisirs, 2001
@@ -698,7 +973,7 @@
 Mémoires d'un ours en peluche de Dominique Maes ; illustrations de Claude K. Dubois, Alice Jeunesse, 2007
 Ma grand-mère Alzha..., quoi ? de Véronique Van den Abeele ; illustré par Claude K. Dubois, Mijade, 2007
 Bébé je t'aime : Le grand livre des mots doux, Carl Norac ; illustrations de Claude K. Dubois, Pastel, L’École des loisirs, 2007
-Lola reine des princesses[17], texte de Carl Norac ; illustrations de Claude K. Dubois, Pastel, L’École des loisirs, 2008
+Lola reine des princesses, texte de Carl Norac ; illustrations de Claude K. Dubois, Pastel, L’École des loisirs, 2008
  Arthur, 7 :  Arthur et les baskets du sapin de Noël, Gudule ; illustrations de Claude K. Dubois, Nathan, 2008
 Mon chien est mort, Dr Éric Englebert ; illustré par Claude K. Dubois, Grasset Jeunesse, 2008
 Chez moi, c'est la guerre, de Fatima Sharafeddine ; illustrations de Claude K. Dubois, Mijade, 2008
@@ -706,9 +981,47 @@
 Chacun sa chambre !, Dr Éric Englebert ; illustré par Claude K. Dubois, Grasset Jeunesse, 2009
 Miss catastrophe  de Béatrice Hammer ; illustrations de Claude K. Dubois, Alice Jeunesse, 2009
 Ninon la bizarre, Dr Éric Englebert ; illustré par Claude K. Dubois, Grasset Jeunesse, 2009
-Superchouchoute, de Béatrice Hammer ; ill. Claude K. Dubois, Alice Jeunesse, 2009
-Années 2010
-Tu veux être ma copine ?  de Susie Morgenstern ; illustrations de Claude K. Dubois, L’École des loisirs, 2010
+Superchouchoute, de Béatrice Hammer ; ill. Claude K. Dubois, Alice Jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tu veux être ma copine ?  de Susie Morgenstern ; illustrations de Claude K. Dubois, L’École des loisirs, 2010
 On a volé mon sac !, Dr Éric Englebert ; illustré par Claude K. Dubois, Grasset Jeunesse, 2010
 J'aime pas les bisous, de Nadine Monfils, ill. de Claude K. Dubois, Mijade, 2010
 Joyeux anniversaire Lola !, texte de Carl Norac ; illustrations de Claude K. Dubois, Pastel, L'École des loisirs, 2010
@@ -728,47 +1041,83 @@
 Bonhomme, texte de Sarah V. ; illustrations de Claude K. Dubois, Pastel, L’École des loisirs, 2017
 Bibi et le secret des doudous, de Éric Englebert ; illustrations de Claude K. Dubois, Mijade, 2018
 Adorable, c'est tout moi !, texte de Carl Norac ; illustrations de Claude K. Dubois, Pastel, L’École des Loisirs, 2018
-Je m'appelle Maryam, texte de Maryam Madjidi ; illustrations de Claude K. Dubois, Mouche, L’École des Loisirs, 2019.
-Autrice adaptée en bande dessinée
-Les Otages[18], Futuropolis, Paris, 2012Scénario, dessin et couleurs : Arnaud Floc'h -  (ISBN 9782754806725),histoire originale de Claude K. Dubois, adaptation et dialogues de Arnaud Floc'h et Christiane Germain[19].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Claude_K._Dubois</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Je m'appelle Maryam, texte de Maryam Madjidi ; illustrations de Claude K. Dubois, Mouche, L’École des Loisirs, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autrice adaptée en bande dessinée</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Otages, Futuropolis, Paris, 2012Scénario, dessin et couleurs : Arnaud Floc'h -  (ISBN 9782754806725),histoire originale de Claude K. Dubois, adaptation et dialogues de Arnaud Floc'h et Christiane Germain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_K._Dubois</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) pour Mano, l'enfant du désert, texte de Colette Hellings, illustrations de Claude K. Dubois[20], publié en 1995 ;
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) pour Mano, l'enfant du désert, texte de Colette Hellings, illustrations de Claude K. Dubois, publié en 1995 ;
  prix des Bibliothèques de France 1996 pour Les Mots doux, texte de Carl Norac, illustration de Claude K. Dubois ;
- prix SCAM 2002 de l’Illustration jeunesse en Belgique[3],[4] ;
-Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide à la création, 2007[4] ;
-Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide à la création, 2012[4] ;
-Coup de cœur 2012 du Centre national de la littérature pour la jeunesse (BnF) pour Akim court[7] ;
-Coup de cœur 2012 de NVL La Revue pour Akim court[21] ;
- Deutscher Jugendliteraturpreis 2014, catégorie album, pour Akim court[8] (Momo du meilleur album de l'année 2014[4], Foire du livre de Francfort) ;
- Katholische Kinderbuchpreis 2014[4] pour Akim court.</t>
+ prix SCAM 2002 de l’Illustration jeunesse en Belgique, ;
+Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide à la création, 2007 ;
+Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide à la création, 2012 ;
+Coup de cœur 2012 du Centre national de la littérature pour la jeunesse (BnF) pour Akim court ;
+Coup de cœur 2012 de NVL La Revue pour Akim court ;
+ Deutscher Jugendliteraturpreis 2014, catégorie album, pour Akim court (Momo du meilleur album de l'année 2014, Foire du livre de Francfort) ;
+ Katholische Kinderbuchpreis 2014 pour Akim court.</t>
         </is>
       </c>
     </row>
